--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1646.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1646.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.010975491947145</v>
+        <v>2.313393592834473</v>
       </c>
       <c r="B1">
-        <v>3.371856590176982</v>
+        <v>3.328510522842407</v>
       </c>
       <c r="C1">
-        <v>3.293950631653882</v>
+        <v>3.047177314758301</v>
       </c>
       <c r="D1">
-        <v>2.363243016074945</v>
+        <v>3.45962381362915</v>
       </c>
       <c r="E1">
-        <v>1.245482257706799</v>
+        <v>1.736697316169739</v>
       </c>
     </row>
   </sheetData>
